--- a/DuePrint3 Wire List.xlsx
+++ b/DuePrint3 Wire List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jared\Documents\GitHub\DuePrint3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29C29E1D-7390-4370-80D2-B9B38E9C78A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A371B7-FF35-4A56-B935-D1B3C11EA22E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21555" yWindow="4155" windowWidth="34380" windowHeight="13980" xr2:uid="{3CF24DAB-A4E5-4B0F-806A-3EDA7AAF8571}"/>
+    <workbookView xWindow="0" yWindow="10500" windowWidth="25800" windowHeight="10500" xr2:uid="{3CF24DAB-A4E5-4B0F-806A-3EDA7AAF8571}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1126,8 +1126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F061D89-7440-4290-8736-92859B5FF9A2}">
   <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="I65" sqref="I65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1632,7 +1632,7 @@
         <v>139</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H19" s="1">
         <v>22</v>
@@ -1658,7 +1658,7 @@
         <v>139</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H20" s="1">
         <v>22</v>
